--- a/資料庫安裝/Install_MySQL_Windows.xlsx
+++ b/資料庫安裝/Install_MySQL_Windows.xlsx
@@ -468,10 +468,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2796,7 +2796,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:A343"/>
   <sheetViews>
-    <sheetView topLeftCell="A334" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J331" sqref="J331"/>
     </sheetView>
   </sheetViews>
@@ -2944,8 +2944,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="343" spans="1:1" s="7" customFormat="1" ht="20.399999999999999">
-      <c r="A343" s="7" t="s">
+    <row r="343" spans="1:1" s="8" customFormat="1" ht="20.399999999999999">
+      <c r="A343" s="8" t="s">
         <v>22</v>
       </c>
     </row>
